--- a/Economics/Forecast/Stationaritiy/Percentage Return/Ind_prod.xlsx
+++ b/Economics/Forecast/Stationaritiy/Percentage Return/Ind_prod.xlsx
@@ -417,13 +417,13 @@
         <v>99</v>
       </c>
       <c r="C2">
-        <v>0.1643749398632346</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-3.968589997867657</v>
+        <v>-4.165598265928963</v>
       </c>
       <c r="E2">
-        <v>4.297339877594126</v>
+        <v>4.165598265928963</v>
       </c>
       <c r="F2">
         <v>1.233425840271342</v>
@@ -437,13 +437,13 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>0.1367487092109591</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-3.980811631645078</v>
+        <v>-4.151762348046981</v>
       </c>
       <c r="E3">
-        <v>4.254309050066996</v>
+        <v>4.151762348046981</v>
       </c>
       <c r="F3">
         <v>-5.990455883846067</v>
@@ -457,13 +457,13 @@
         <v>101</v>
       </c>
       <c r="C4">
-        <v>0.5321696306110999</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-3.668707799075284</v>
+        <v>-4.293180216237716</v>
       </c>
       <c r="E4">
-        <v>4.733047060297483</v>
+        <v>4.293180216237716</v>
       </c>
       <c r="F4">
         <v>6.58818446916513</v>
@@ -477,13 +477,13 @@
         <v>102</v>
       </c>
       <c r="C5">
-        <v>0.1590794553857863</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-4.299317694612529</v>
+        <v>-4.459306758772394</v>
       </c>
       <c r="E5">
-        <v>4.617476605384101</v>
+        <v>4.459306758772394</v>
       </c>
       <c r="F5">
         <v>-0.506636943965954</v>
@@ -497,13 +497,13 @@
         <v>103</v>
       </c>
       <c r="C6">
-        <v>-0.0173493819887942</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-4.455715077873429</v>
+        <v>-4.438685382354853</v>
       </c>
       <c r="E6">
-        <v>4.421016313895842</v>
+        <v>4.438685382354853</v>
       </c>
       <c r="F6">
         <v>-2.444240757714626</v>
@@ -517,13 +517,13 @@
         <v>104</v>
       </c>
       <c r="C7">
-        <v>-0.03604070844011142</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-4.47726572887613</v>
+        <v>-4.442203083547593</v>
       </c>
       <c r="E7">
-        <v>4.405184311995907</v>
+        <v>4.442203083547593</v>
       </c>
       <c r="F7">
         <v>-5.950516755402446</v>
@@ -537,13 +537,13 @@
         <v>105</v>
       </c>
       <c r="C8">
-        <v>-0.2433553938936873</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-4.804459152288605</v>
+        <v>-4.565163497838439</v>
       </c>
       <c r="E8">
-        <v>4.31774836450123</v>
+        <v>4.565163497838439</v>
       </c>
       <c r="F8">
         <v>2.331002331002324</v>
@@ -557,13 +557,13 @@
         <v>106</v>
       </c>
       <c r="C9">
-        <v>0.05830603282490165</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-4.506150846356678</v>
+        <v>-4.565197483478125</v>
       </c>
       <c r="E9">
-        <v>4.622762912006482</v>
+        <v>4.565197483478125</v>
       </c>
       <c r="F9">
         <v>5.315110098709193</v>
@@ -577,13 +577,13 @@
         <v>107</v>
       </c>
       <c r="C10">
-        <v>0.2127357152893905</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-4.435953863573828</v>
+        <v>-4.654086430239364</v>
       </c>
       <c r="E10">
-        <v>4.861425294152609</v>
+        <v>4.654086430239364</v>
       </c>
       <c r="F10">
         <v>-0.1029972190750938</v>
@@ -597,13 +597,13 @@
         <v>108</v>
       </c>
       <c r="C11">
-        <v>-0.05454883474510568</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-4.682036741901281</v>
+        <v>-4.63253035293016</v>
       </c>
       <c r="E11">
-        <v>4.57293907241107</v>
+        <v>4.63253035293016</v>
       </c>
       <c r="F11">
         <v>-2.165171667182178</v>
@@ -617,13 +617,13 @@
         <v>109</v>
       </c>
       <c r="C12">
-        <v>-0.09120600431212234</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-4.714367482249235</v>
+        <v>-4.629111855347324</v>
       </c>
       <c r="E12">
-        <v>4.53195547362499</v>
+        <v>4.629111855347324</v>
       </c>
       <c r="F12">
         <v>2.318474022552432</v>
@@ -637,13 +637,13 @@
         <v>110</v>
       </c>
       <c r="C13">
-        <v>0.1203749116648236</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-4.503573776350377</v>
+        <v>-4.628347026999164</v>
       </c>
       <c r="E13">
-        <v>4.744323599680024</v>
+        <v>4.628347026999164</v>
       </c>
       <c r="F13">
         <v>-0.4119888763003458</v>
@@ -657,13 +657,13 @@
         <v>111</v>
       </c>
       <c r="C14">
-        <v>-0.04847761873329684</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-4.652603879484258</v>
+        <v>-4.60808888841824</v>
       </c>
       <c r="E14">
-        <v>4.555648642017665</v>
+        <v>4.60808888841824</v>
       </c>
       <c r="F14">
         <v>-1.34450305098769</v>
@@ -677,13 +677,13 @@
         <v>112</v>
       </c>
       <c r="C15">
-        <v>-0.04197088077802869</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-4.631755372881174</v>
+        <v>-4.594223908072829</v>
       </c>
       <c r="E15">
-        <v>4.547813611325117</v>
+        <v>4.594223908072829</v>
       </c>
       <c r="F15">
         <v>-7.023797043715277</v>
@@ -697,13 +697,13 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>-0.3660852077402594</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-5.112990606077852</v>
+        <v>-4.753659502458198</v>
       </c>
       <c r="E16">
-        <v>4.380820190597333</v>
+        <v>4.753659502458198</v>
       </c>
       <c r="F16">
         <v>8.794678092231365</v>
@@ -717,13 +717,13 @@
         <v>114</v>
       </c>
       <c r="C17">
-        <v>-0.03994815242034555</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-4.849649246680151</v>
+        <v>-5.000549335003011</v>
       </c>
       <c r="E17">
-        <v>4.76975294183946</v>
+        <v>5.000549335003011</v>
       </c>
       <c r="F17">
         <v>0.7254637786299127</v>
@@ -737,13 +737,13 @@
         <v>115</v>
       </c>
       <c r="C18">
-        <v>-0.156035685336475</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-4.946905554859259</v>
+        <v>-4.980525641481037</v>
       </c>
       <c r="E18">
-        <v>4.634834184186309</v>
+        <v>4.980525641481037</v>
       </c>
       <c r="F18">
         <v>2.572281098878486</v>
@@ -757,13 +757,13 @@
         <v>116</v>
       </c>
       <c r="C19">
-        <v>-0.5592593241643149</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-5.355184994444521</v>
+        <v>-4.981055963670453</v>
       </c>
       <c r="E19">
-        <v>4.236666346115891</v>
+        <v>4.981055963670453</v>
       </c>
       <c r="F19">
         <v>-1.304042531848728</v>
@@ -777,13 +777,13 @@
         <v>117</v>
       </c>
       <c r="C20">
-        <v>-0.3516763763019464</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-5.128865747954514</v>
+        <v>-4.965349413831194</v>
       </c>
       <c r="E20">
-        <v>4.425512995350621</v>
+        <v>4.965349413831194</v>
       </c>
       <c r="F20">
         <v>-3.150726699867866</v>
@@ -797,13 +797,13 @@
         <v>118</v>
       </c>
       <c r="C21">
-        <v>0.1565208516838172</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-4.62686309269727</v>
+        <v>-4.976840565282775</v>
       </c>
       <c r="E21">
-        <v>4.939904796064905</v>
+        <v>4.976840565282775</v>
       </c>
       <c r="F21">
         <v>0.734599643194447</v>
@@ -817,13 +817,13 @@
         <v>119</v>
       </c>
       <c r="C22">
-        <v>0.03617649869612816</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-4.728173777071092</v>
+        <v>-4.9576426235389</v>
       </c>
       <c r="E22">
-        <v>4.800526774463348</v>
+        <v>4.9576426235389</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>120</v>
       </c>
       <c r="C23">
-        <v>0.03603172613402908</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-4.708416301083383</v>
+        <v>-4.936942563929648</v>
       </c>
       <c r="E23">
-        <v>4.78047975335144</v>
+        <v>4.936942563929648</v>
       </c>
       <c r="F23">
         <v>-4.896343369100936</v>
@@ -857,13 +857,13 @@
         <v>121</v>
       </c>
       <c r="C24">
-        <v>0.8279074732541991</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-3.978001604689888</v>
+        <v>-4.993307445964366</v>
       </c>
       <c r="E24">
-        <v>5.633816551198287</v>
+        <v>4.993307445964366</v>
       </c>
       <c r="F24">
         <v>4.491181947639385</v>
@@ -877,13 +877,13 @@
         <v>122</v>
       </c>
       <c r="C25">
-        <v>0.1007727225544581</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-4.728162875959009</v>
+        <v>-5.036258083569132</v>
       </c>
       <c r="E25">
-        <v>4.929708321067925</v>
+        <v>5.036258083569132</v>
       </c>
       <c r="F25">
         <v>0.2096655833944888</v>
@@ -897,13 +897,13 @@
         <v>123</v>
       </c>
       <c r="C26">
-        <v>0.06404675954745966</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-4.745260286948798</v>
+        <v>-5.015880573019954</v>
       </c>
       <c r="E26">
-        <v>4.873353806043718</v>
+        <v>5.015880573019954</v>
       </c>
       <c r="F26">
         <v>0</v>
